--- a/app/config/tables/individuals/forms/individuals/individuals.xlsx
+++ b/app/config/tables/individuals/forms/individuals/individuals.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16100" yWindow="3380" windowWidth="32460" windowHeight="22300" tabRatio="994"/>
+    <workbookView xWindow="16100" yWindow="3380" windowWidth="32460" windowHeight="22300" tabRatio="994" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -177,9 +177,6 @@
     <t>date_created</t>
   </si>
   <si>
-    <t>beneficiary_entity_id</t>
-  </si>
-  <si>
     <t>beneficiary_entity_status</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>redundant survey sheet</t>
+  </si>
+  <si>
+    <t>beneficiary_entity_row_id</t>
   </si>
 </sst>
 </file>
@@ -342,8 +342,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -422,7 +424,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -449,6 +451,7 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -475,6 +478,7 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -879,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -935,10 +939,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +982,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2"/>
     </row>
@@ -996,7 +1000,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4"/>
     </row>
@@ -1006,7 +1010,7 @@
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1107,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1146,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K2"/>
     </row>
@@ -1155,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1171,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1179,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1187,7 +1191,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1195,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1203,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
